--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H2">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N2">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O2">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P2">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q2">
-        <v>19.42089319424467</v>
+        <v>141.9730613857307</v>
       </c>
       <c r="R2">
-        <v>174.788038748202</v>
+        <v>1277.757552471576</v>
       </c>
       <c r="S2">
-        <v>0.005780540791270293</v>
+        <v>0.03003502735716239</v>
       </c>
       <c r="T2">
-        <v>0.005780540791270292</v>
+        <v>0.03003502735716238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H3">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.2036</v>
       </c>
       <c r="O3">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P3">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q3">
-        <v>19.0470567188</v>
+        <v>73.7763611288</v>
       </c>
       <c r="R3">
-        <v>171.4235104692</v>
+        <v>663.9872501592</v>
       </c>
       <c r="S3">
-        <v>0.005669270059591845</v>
+        <v>0.01560771461280972</v>
       </c>
       <c r="T3">
-        <v>0.005669270059591843</v>
+        <v>0.01560771461280971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H4">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N4">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O4">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P4">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q4">
-        <v>55.462170874616</v>
+        <v>110.194296564154</v>
       </c>
       <c r="R4">
-        <v>499.159537871544</v>
+        <v>991.7486690773861</v>
       </c>
       <c r="S4">
-        <v>0.01650806365631682</v>
+        <v>0.02331208948798704</v>
       </c>
       <c r="T4">
-        <v>0.01650806365631681</v>
+        <v>0.02331208948798703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H5">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N5">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O5">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P5">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q5">
-        <v>303.811245253851</v>
+        <v>478.3857123392821</v>
       </c>
       <c r="R5">
-        <v>2734.301207284659</v>
+        <v>4305.471411053539</v>
       </c>
       <c r="S5">
-        <v>0.09042803945582445</v>
+        <v>0.1012046075300738</v>
       </c>
       <c r="T5">
-        <v>0.09042803945582445</v>
+        <v>0.1012046075300738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H6">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N6">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O6">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P6">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q6">
-        <v>323.034027479172</v>
+        <v>1533.437241042212</v>
       </c>
       <c r="R6">
-        <v>2907.306247312548</v>
+        <v>13800.93516937991</v>
       </c>
       <c r="S6">
-        <v>0.09614961341556916</v>
+        <v>0.3244054120947729</v>
       </c>
       <c r="T6">
-        <v>0.09614961341556914</v>
+        <v>0.3244054120947728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H7">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N7">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O7">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P7">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q7">
-        <v>76.621993743443</v>
+        <v>104.2025737905313</v>
       </c>
       <c r="R7">
-        <v>689.597943690987</v>
+        <v>937.8231641147821</v>
       </c>
       <c r="S7">
-        <v>0.02280618897969568</v>
+        <v>0.02204451410667334</v>
       </c>
       <c r="T7">
-        <v>0.02280618897969567</v>
+        <v>0.02204451410667334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J8">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N8">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O8">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P8">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q8">
-        <v>19.44342334406022</v>
+        <v>36.69611802186622</v>
       </c>
       <c r="R8">
-        <v>174.990810096542</v>
+        <v>330.265062196796</v>
       </c>
       <c r="S8">
-        <v>0.005787246788195338</v>
+        <v>0.007763225628373943</v>
       </c>
       <c r="T8">
-        <v>0.005787246788195338</v>
+        <v>0.007763225628373942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J9">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.2036</v>
       </c>
       <c r="O9">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P9">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q9">
         <v>19.06915318146666</v>
@@ -1013,10 +1013,10 @@
         <v>171.6223786332</v>
       </c>
       <c r="S9">
-        <v>0.005675846971503667</v>
+        <v>0.004034163466597164</v>
       </c>
       <c r="T9">
-        <v>0.005675846971503665</v>
+        <v>0.004034163466597164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J10">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N10">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O10">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P10">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q10">
-        <v>55.52651245800266</v>
+        <v>28.48218438474233</v>
       </c>
       <c r="R10">
-        <v>499.7386121220239</v>
+        <v>256.339659462681</v>
       </c>
       <c r="S10">
-        <v>0.01652721463684184</v>
+        <v>0.006025531737061347</v>
       </c>
       <c r="T10">
-        <v>0.01652721463684183</v>
+        <v>0.006025531737061347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J11">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N11">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O11">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P11">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q11">
-        <v>304.163696235521</v>
+        <v>123.649503565197</v>
       </c>
       <c r="R11">
-        <v>2737.473266119689</v>
+        <v>1112.845532086773</v>
       </c>
       <c r="S11">
-        <v>0.09053294489225774</v>
+        <v>0.02615859787787533</v>
       </c>
       <c r="T11">
-        <v>0.09053294489225773</v>
+        <v>0.02615859787787533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J12">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N12">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O12">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P12">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q12">
-        <v>323.408778782412</v>
+        <v>396.3512051312686</v>
       </c>
       <c r="R12">
-        <v>2910.679009041708</v>
+        <v>3567.160846181418</v>
       </c>
       <c r="S12">
-        <v>0.0962611564415924</v>
+        <v>0.08384984568881326</v>
       </c>
       <c r="T12">
-        <v>0.09626115644159239</v>
+        <v>0.08384984568881326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J13">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N13">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O13">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P13">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q13">
-        <v>76.71088280641966</v>
+        <v>26.93348941466077</v>
       </c>
       <c r="R13">
-        <v>690.3979452577769</v>
+        <v>242.401404731947</v>
       </c>
       <c r="S13">
-        <v>0.02283264640620512</v>
+        <v>0.00569789848508884</v>
       </c>
       <c r="T13">
-        <v>0.02283264640620511</v>
+        <v>0.00569789848508884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H14">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I14">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J14">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N14">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O14">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P14">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q14">
-        <v>6.151953931894221</v>
+        <v>8.356776208983112</v>
       </c>
       <c r="R14">
-        <v>55.367585387048</v>
+        <v>75.21098588084801</v>
       </c>
       <c r="S14">
-        <v>0.001831101190539929</v>
+        <v>0.0017679128674457</v>
       </c>
       <c r="T14">
-        <v>0.001831101190539929</v>
+        <v>0.001767912867445699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H15">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I15">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J15">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.2036</v>
       </c>
       <c r="O15">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P15">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q15">
-        <v>6.033533797866666</v>
+        <v>4.342602275733333</v>
       </c>
       <c r="R15">
-        <v>54.3018041808</v>
+        <v>39.0834204816</v>
       </c>
       <c r="S15">
-        <v>0.00179585397464685</v>
+        <v>0.0009186966659721226</v>
       </c>
       <c r="T15">
-        <v>0.001795853974646849</v>
+        <v>0.0009186966659721225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H16">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I16">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J16">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N16">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O16">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P16">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q16">
-        <v>17.56874499905067</v>
+        <v>6.486223984358667</v>
       </c>
       <c r="R16">
-        <v>158.118704991456</v>
+        <v>58.376015859228</v>
       </c>
       <c r="S16">
-        <v>0.005229257279914112</v>
+        <v>0.001372189293612539</v>
       </c>
       <c r="T16">
-        <v>0.00522925727991411</v>
+        <v>0.001372189293612538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H17">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I17">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J17">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N17">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O17">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P17">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q17">
-        <v>96.23825053252401</v>
+        <v>28.15859783943601</v>
       </c>
       <c r="R17">
-        <v>866.1442547927161</v>
+        <v>253.427380554924</v>
       </c>
       <c r="S17">
-        <v>0.02864487885905299</v>
+        <v>0.005957075576112057</v>
       </c>
       <c r="T17">
-        <v>0.02864487885905298</v>
+        <v>0.005957075576112055</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H18">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I18">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J18">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N18">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O18">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P18">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q18">
-        <v>102.327448877328</v>
+        <v>90.26072783690934</v>
       </c>
       <c r="R18">
-        <v>920.947039895952</v>
+        <v>812.346550532184</v>
       </c>
       <c r="S18">
-        <v>0.03045730113367351</v>
+        <v>0.0190950550998785</v>
       </c>
       <c r="T18">
-        <v>0.0304573011336735</v>
+        <v>0.0190950550998785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H19">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I19">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J19">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N19">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O19">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P19">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q19">
-        <v>24.27153946859867</v>
+        <v>6.133540976492889</v>
       </c>
       <c r="R19">
-        <v>218.443855217388</v>
+        <v>55.201868788436</v>
       </c>
       <c r="S19">
-        <v>0.007224313658588053</v>
+        <v>0.001297577647668841</v>
       </c>
       <c r="T19">
-        <v>0.007224313658588051</v>
+        <v>0.001297577647668841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H20">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I20">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J20">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N20">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O20">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P20">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q20">
-        <v>20.650883316184</v>
+        <v>45.88439472467911</v>
       </c>
       <c r="R20">
-        <v>185.857949845656</v>
+        <v>412.9595525221121</v>
       </c>
       <c r="S20">
-        <v>0.006146641773424753</v>
+        <v>0.009707046092908209</v>
       </c>
       <c r="T20">
-        <v>0.006146641773424753</v>
+        <v>0.009707046092908209</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H21">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I21">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J21">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.2036</v>
       </c>
       <c r="O21">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P21">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q21">
-        <v>20.2533705264</v>
+        <v>23.84384503893333</v>
       </c>
       <c r="R21">
-        <v>182.2803347376</v>
+        <v>214.5946053504</v>
       </c>
       <c r="S21">
-        <v>0.006028323894148274</v>
+        <v>0.005044270589464667</v>
       </c>
       <c r="T21">
-        <v>0.006028323894148272</v>
+        <v>0.005044270589464667</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H22">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I22">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J22">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N22">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O22">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P22">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q22">
-        <v>58.97477565724801</v>
+        <v>35.61378863431467</v>
       </c>
       <c r="R22">
-        <v>530.772980915232</v>
+        <v>320.524097708832</v>
       </c>
       <c r="S22">
-        <v>0.01755357454124526</v>
+        <v>0.00753425407245144</v>
       </c>
       <c r="T22">
-        <v>0.01755357454124525</v>
+        <v>0.00753425407245144</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H23">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I23">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J23">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N23">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O23">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P23">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q23">
-        <v>323.0526275558281</v>
+        <v>154.609886138784</v>
       </c>
       <c r="R23">
-        <v>2907.473648002453</v>
+        <v>1391.488975249056</v>
       </c>
       <c r="S23">
-        <v>0.09615514964404</v>
+        <v>0.03270840337273213</v>
       </c>
       <c r="T23">
-        <v>0.09615514964403998</v>
+        <v>0.03270840337273212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H24">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I24">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J24">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N24">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O24">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P24">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q24">
-        <v>343.4928528728161</v>
+        <v>495.5928890082773</v>
       </c>
       <c r="R24">
-        <v>3091.435675855344</v>
+        <v>4460.336001074495</v>
       </c>
       <c r="S24">
-        <v>0.1022390900192757</v>
+        <v>0.1048448616525699</v>
       </c>
       <c r="T24">
-        <v>0.1022390900192757</v>
+        <v>0.1048448616525699</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H25">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I25">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J25">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N25">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O25">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P25">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q25">
-        <v>81.47472088040401</v>
+        <v>33.67731864386489</v>
       </c>
       <c r="R25">
-        <v>733.272487923636</v>
+        <v>303.095867794784</v>
       </c>
       <c r="S25">
-        <v>0.02425058120633232</v>
+        <v>0.007124585304504954</v>
       </c>
       <c r="T25">
-        <v>0.02425058120633231</v>
+        <v>0.007124585304504953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H26">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N26">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O26">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P26">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q26">
-        <v>8.574914908574666</v>
+        <v>30.79868482643689</v>
       </c>
       <c r="R26">
-        <v>77.174234177172</v>
+        <v>277.188163437932</v>
       </c>
       <c r="S26">
-        <v>0.002552284537838706</v>
+        <v>0.006515597623223662</v>
       </c>
       <c r="T26">
-        <v>0.002552284537838707</v>
+        <v>0.006515597623223661</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H27">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.2036</v>
       </c>
       <c r="O27">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P27">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q27">
-        <v>8.4098547368</v>
+        <v>16.00454953826667</v>
       </c>
       <c r="R27">
-        <v>75.6886926312</v>
+        <v>144.0409458444</v>
       </c>
       <c r="S27">
-        <v>0.002503155126208953</v>
+        <v>0.003385833048389935</v>
       </c>
       <c r="T27">
-        <v>0.002503155126208952</v>
+        <v>0.003385833048389934</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H28">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N28">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O28">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P28">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q28">
-        <v>24.488234971376</v>
+        <v>23.90481247938633</v>
       </c>
       <c r="R28">
-        <v>220.394114742384</v>
+        <v>215.143312314477</v>
       </c>
       <c r="S28">
-        <v>0.007288812092339823</v>
+        <v>0.005057168520410363</v>
       </c>
       <c r="T28">
-        <v>0.007288812092339822</v>
+        <v>0.005057168520410361</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H29">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N29">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O29">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P29">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q29">
-        <v>134.141903272086</v>
+        <v>103.777791617649</v>
       </c>
       <c r="R29">
-        <v>1207.277129448774</v>
+        <v>934.000124558841</v>
       </c>
       <c r="S29">
-        <v>0.0399267292151485</v>
+        <v>0.02195464956435223</v>
       </c>
       <c r="T29">
-        <v>0.0399267292151485</v>
+        <v>0.02195464956435223</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H30">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N30">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O30">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P30">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q30">
-        <v>142.629346163592</v>
+        <v>332.6536022187007</v>
       </c>
       <c r="R30">
-        <v>1283.664115472328</v>
+        <v>2993.882419968306</v>
       </c>
       <c r="S30">
-        <v>0.0424529781037664</v>
+        <v>0.07037433683247658</v>
       </c>
       <c r="T30">
-        <v>0.04245297810376639</v>
+        <v>0.07037433683247658</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H31">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N31">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O31">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P31">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q31">
-        <v>33.830940209798</v>
+        <v>22.60500828082211</v>
       </c>
       <c r="R31">
-        <v>304.478461888182</v>
+        <v>203.445074527399</v>
       </c>
       <c r="S31">
-        <v>0.01006962594015592</v>
+        <v>0.004782189208970687</v>
       </c>
       <c r="T31">
-        <v>0.01006962594015592</v>
+        <v>0.004782189208970686</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H32">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I32">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J32">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.467955333333333</v>
+        <v>6.545169333333334</v>
       </c>
       <c r="N32">
-        <v>10.403866</v>
+        <v>19.635508</v>
       </c>
       <c r="O32">
-        <v>0.02435535092593897</v>
+        <v>0.05813875895599822</v>
       </c>
       <c r="P32">
-        <v>0.02435535092593898</v>
+        <v>0.05813875895599821</v>
       </c>
       <c r="Q32">
-        <v>7.584647199051998</v>
+        <v>11.10801413929556</v>
       </c>
       <c r="R32">
-        <v>68.26182479146799</v>
+        <v>99.97212725365999</v>
       </c>
       <c r="S32">
-        <v>0.002257535844669952</v>
+        <v>0.002349949386884326</v>
       </c>
       <c r="T32">
-        <v>0.002257535844669952</v>
+        <v>0.002349949386884325</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H33">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I33">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J33">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.2036</v>
       </c>
       <c r="O33">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="P33">
-        <v>0.02388653013292472</v>
+        <v>0.03021183057160647</v>
       </c>
       <c r="Q33">
-        <v>7.438648879199999</v>
+        <v>5.772284224666666</v>
       </c>
       <c r="R33">
-        <v>66.94783991279999</v>
+        <v>51.950558022</v>
       </c>
       <c r="S33">
-        <v>0.002214080106825129</v>
+        <v>0.001221152188372865</v>
       </c>
       <c r="T33">
-        <v>0.002214080106825128</v>
+        <v>0.001221152188372865</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H34">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I34">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J34">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.903784</v>
+        <v>5.080121</v>
       </c>
       <c r="N34">
-        <v>29.711352</v>
+        <v>15.240363</v>
       </c>
       <c r="O34">
-        <v>0.06955399122250314</v>
+        <v>0.04512517785936141</v>
       </c>
       <c r="P34">
-        <v>0.06955399122250314</v>
+        <v>0.0451251778593614</v>
       </c>
       <c r="Q34">
-        <v>21.660229257744</v>
+        <v>8.621634219598333</v>
       </c>
       <c r="R34">
-        <v>194.942063319696</v>
+        <v>77.594707976385</v>
       </c>
       <c r="S34">
-        <v>0.006447069015845289</v>
+        <v>0.001823944747838689</v>
       </c>
       <c r="T34">
-        <v>0.006447069015845288</v>
+        <v>0.001823944747838689</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H35">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I35">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J35">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.251049</v>
+        <v>22.054293</v>
       </c>
       <c r="N35">
-        <v>162.753147</v>
+        <v>66.162879</v>
       </c>
       <c r="O35">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="P35">
-        <v>0.3810035624724437</v>
+        <v>0.1959016122229115</v>
       </c>
       <c r="Q35">
-        <v>118.650624732234</v>
+        <v>37.429039036245</v>
       </c>
       <c r="R35">
-        <v>1067.855622590106</v>
+        <v>336.861351326205</v>
       </c>
       <c r="S35">
-        <v>0.03531582040611998</v>
+        <v>0.007918278301765955</v>
       </c>
       <c r="T35">
-        <v>0.03531582040611998</v>
+        <v>0.007918278301765953</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H36">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I36">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J36">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.683628</v>
+        <v>70.693738</v>
       </c>
       <c r="N36">
-        <v>173.050884</v>
+        <v>212.081214</v>
       </c>
       <c r="O36">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="P36">
-        <v>0.4051104664231506</v>
+        <v>0.6279510863605603</v>
       </c>
       <c r="Q36">
-        <v>126.157901555448</v>
+        <v>119.9765813948366</v>
       </c>
       <c r="R36">
-        <v>1135.421113999032</v>
+        <v>1079.78923255353</v>
       </c>
       <c r="S36">
-        <v>0.03755032730927349</v>
+        <v>0.02538157499204927</v>
       </c>
       <c r="T36">
-        <v>0.03755032730927348</v>
+        <v>0.02538157499204927</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H37">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I37">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J37">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.682257</v>
+        <v>4.803893666666666</v>
       </c>
       <c r="N37">
-        <v>41.046771</v>
+        <v>14.411681</v>
       </c>
       <c r="O37">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956212</v>
       </c>
       <c r="P37">
-        <v>0.09609009882303897</v>
+        <v>0.04267153402956211</v>
       </c>
       <c r="Q37">
-        <v>29.923999087962</v>
+        <v>8.152840064999443</v>
       </c>
       <c r="R37">
-        <v>269.315991791658</v>
+        <v>73.37556058499499</v>
       </c>
       <c r="S37">
-        <v>0.008906742632061879</v>
+        <v>0.001724769276655459</v>
       </c>
       <c r="T37">
-        <v>0.008906742632061879</v>
+        <v>0.001724769276655459</v>
       </c>
     </row>
   </sheetData>
